--- a/PSPSProject/testData/em_Valid_Invalid_Circuits_message.xlsx
+++ b/PSPSProject/testData/em_Valid_Invalid_Circuits_message.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k8my\Documents\GitHub\gis-geomartcloud-pspsv4-automation-python\PSPSProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030D26DA-8903-46A6-803B-C3093D7E3DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5B405E-9D21-46BC-8462-9AC3E812000A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2340" windowWidth="20490" windowHeight="8985" tabRatio="765" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="765" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fail1_EmptyFile" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,15 @@
     <sheet name="Fail6_missingcircuitname" sheetId="37" r:id="rId6"/>
     <sheet name="Fail7_missingcircuitid" sheetId="38" r:id="rId7"/>
     <sheet name="Fail8_missingFIA" sheetId="39" r:id="rId8"/>
-    <sheet name="Error_Message" sheetId="29" r:id="rId9"/>
+    <sheet name="Fail8_missingINC" sheetId="40" r:id="rId9"/>
+    <sheet name="Error_Message" sheetId="29" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="34">
   <si>
     <t>FIA</t>
   </si>
@@ -93,50 +94,50 @@
     <t>Test12345</t>
   </si>
   <si>
+    <t>circuit name</t>
+  </si>
+  <si>
+    <t>circuit id</t>
+  </si>
+  <si>
+    <t>source_isolation_device</t>
+  </si>
+  <si>
+    <t>source_isolation_device_type</t>
+  </si>
+  <si>
+    <t>additional_isolation_device</t>
+  </si>
+  <si>
+    <t>additional_isolation_device_type</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>tempgenname</t>
+  </si>
+  <si>
+    <t>substationname</t>
+  </si>
+  <si>
+    <t>transmissionimpact</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
     <t>Error</t>
   </si>
   <si>
-    <t>circuit name</t>
-  </si>
-  <si>
-    <t>circuit id</t>
-  </si>
-  <si>
-    <t>source_isolation_device</t>
-  </si>
-  <si>
-    <t>source_isolation_device_type</t>
-  </si>
-  <si>
-    <t>additional_isolation_device</t>
-  </si>
-  <si>
-    <t>additional_isolation_device_type</t>
-  </si>
-  <si>
-    <t>flag</t>
-  </si>
-  <si>
-    <t>tempgenname</t>
-  </si>
-  <si>
-    <t>substationname</t>
-  </si>
-  <si>
-    <t>transmissionimpact</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>One or more columns are missing in the file. Expected column names are: FIA, Circuit name, Circuit ID, source_isolation_device, source_isolation_device_type, additional_isolation_device, additional_isolation_device_type, Flag,  tempgenname, substationname, transmissionimpact, Comments (note: column names are not case sensitive)</t>
+    <t>One or more columns are missing in the file. Expected column names are: FIA, Circuit ID, Circuit name, source_isolation_device, source_isolation_device_type, additional_isolation_device, additional_isolation_device_type, Flag, tempgenname, inc, substationname, transmissionimpact, Comments (note: column names are not case sensitive)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +271,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
     </font>
   </fonts>
   <fills count="33">
@@ -613,8 +619,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -975,7 +984,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
@@ -986,46 +995,116 @@
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387A1579-6014-45CA-A0C1-A9D63B523CC1}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="122.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1034,10 +1113,10 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
@@ -1048,42 +1127,42 @@
     <col min="12" max="12" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>424</v>
       </c>
@@ -1103,7 +1182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>130</v>
       </c>
@@ -1123,7 +1202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>112</v>
       </c>
@@ -1153,9 +1232,9 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>424</v>
       </c>
@@ -1195,7 +1274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>130</v>
       </c>
@@ -1215,7 +1294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>112</v>
       </c>
@@ -1248,9 +1327,9 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>424</v>
       </c>
@@ -1290,7 +1369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>130</v>
       </c>
@@ -1310,7 +1389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>112</v>
       </c>
@@ -1343,9 +1422,9 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>424</v>
       </c>
@@ -1385,7 +1464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>130</v>
       </c>
@@ -1405,7 +1484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>112</v>
       </c>
@@ -1438,9 +1517,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>424</v>
       </c>
@@ -1480,7 +1559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>130</v>
       </c>
@@ -1500,7 +1579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>112</v>
       </c>
@@ -1533,9 +1612,9 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>424</v>
       </c>
@@ -1575,7 +1654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>130</v>
       </c>
@@ -1595,7 +1674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>112</v>
       </c>
@@ -1628,9 +1707,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1650,7 +1729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>14161105</v>
       </c>
@@ -1670,7 +1749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>13921102</v>
       </c>
@@ -1690,7 +1769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>192401101</v>
       </c>
@@ -1716,65 +1795,120 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387A1579-6014-45CA-A0C1-A9D63B523CC1}">
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E276E2-9AE9-4F1E-820B-AF18EA4EAA42}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>424</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>14161105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>13921102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>192401101</v>
+      </c>
+      <c r="D4">
+        <v>3174</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>